--- a/伺服控制板Φ90-Φ78.xlsx
+++ b/伺服控制板Φ90-Φ78.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="251">
   <si>
     <t>LibRef</t>
   </si>
@@ -970,64 +970,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Comment</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（规格）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GRM32ER72A225KA35L  Series= X7R</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Description(</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>型号</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="MS Sans Serif"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Quantity</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（数量）</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1072,38 +1015,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>Designator</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（名称）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Footprint</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>（封装）</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B1, B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1113,6 +1024,26 @@
   </si>
   <si>
     <t>C1, C4, C7, C10, C13, C14, C16, C29, C30, C31, C37, C38, C39, C40, C45, C46, C47, C48, C49, C50, C51, C52, C54, C58, C60, C64, C72, C74, C77, C79, C80, C83, C84, C86, C89, C92, C95, C96, C97, C98, C99, C100, C101, C103, C106, C107, C108, C123, C124, C128, C129, C130, C131, C132, C133, C134, C135, C143, C144, C145, C146, DC2, DC3, DC6, DC7, DC10, DC11, DC14, DC15, DC18, DC19, DC22, DC23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Designator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Footprint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quantity</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1510,7 +1441,7 @@
   <dimension ref="A1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1523,39 +1454,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>240</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>1</v>
@@ -1567,10 +1498,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>3</v>
@@ -1588,10 +1519,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>4</v>
@@ -1609,13 +1540,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>6</v>
@@ -1633,7 +1564,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>10</v>
@@ -1717,7 +1648,7 @@
         <v>225</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>19</v>
@@ -1840,10 +1771,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>34</v>
